--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -638,6 +638,26 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
         <v/>
       </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -715,6 +735,26 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
         <v/>
       </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -791,6 +831,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
         <v/>
       </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -864,6 +920,22 @@
       </c>
       <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -915,27 +915,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -635,27 +635,27 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -732,27 +732,27 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -828,23 +828,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -919,23 +919,23 @@
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -915,27 +915,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -915,27 +915,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -654,9 +654,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -751,9 +752,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -843,9 +845,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -934,9 +937,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,33 +631,32 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx, "A 30840-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -670,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,33 +728,32 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx, "A 30841-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</t>
-        </is>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -768,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -826,29 +824,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx, "A 30839-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</t>
-        </is>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -861,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,29 +915,28 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx, "A 33036-2023"")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</t>
-        </is>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -953,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1077,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1139,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1196,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1258,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1315,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1372,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1429,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1491,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1548,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1610,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1672,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1729,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1786,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1843,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1900,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1957,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2014,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3132,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3194,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3251,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3313,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3370,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3427,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3484,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3603,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3665,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3722,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3779,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3836,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3893,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3955,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4017,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4074,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4188,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4312,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4659,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4716,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4773,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4835,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5125,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5187,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5244,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5368,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5430,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5487,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5544,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5601,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5663,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5725,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5787,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5844,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5906,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5968,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6025,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6087,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6144,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6206,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6263,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6320,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6382,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6439,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6501,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6558,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6615,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6739,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6801,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6858,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6920,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6977,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7034,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7091,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7153,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7215,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7277,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7334,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7396,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7453,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7510,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7567,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7624,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7681,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7738,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7795,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7852,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7909,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7966,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8256,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8313,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8551,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8794,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8856,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8918,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8975,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9037,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9094,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9151,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9208,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9265,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9441,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9565,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9627,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9689,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9746,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9803,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9865,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9922,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9979,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10036,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10098,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10160,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10222,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10279,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10336,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10398,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10455,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10517,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10698,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10760,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10822,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10884,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10941,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10998,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx, "A 30840-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx, "A 30841-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx, "A 30839-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx, "A 33036-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T5">

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30839-2023.png", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,27 +915,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/kartor/A 33036-2023.png", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30840-2023 artfynd.xlsx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30840-2023 karta.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30840-2023 karta knärot.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023 fsc-klagomål.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023 fsc-klagomål mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30840-2023 tillsynsbegäran.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30840-2023 tillsynsbegäran mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30841-2023 artfynd.xlsx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30841-2023 karta.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30841-2023 karta knärot.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023 fsc-klagomål.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023 fsc-klagomål mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30841-2023 tillsynsbegäran.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30841-2023 tillsynsbegäran mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30839-2023 artfynd.xlsx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30839-2023.png", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30839-2023 karta.png", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023 fsc-klagomål.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023 fsc-klagomål mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30839-2023 tillsynsbegäran.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30839-2023 tillsynsbegäran mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,27 +915,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/artfynd/A 33036-2023 artfynd.xlsx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/kartor/A 33036-2023.png", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/kartor/A 33036-2023 karta.png", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023 fsc-klagomål.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023 fsc-klagomål mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsyn/A 33036-2023 tillsynsbegäran.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/ti,llsynsmail/A 33036-2023 tillsynsbegäran mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -643,11 +643,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023 fsc-klagomål.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023 FSC-klagomål.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023 fsc-klagomål mail.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023 FSC-klagomål mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -655,7 +655,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30840-2023 tillsynsbegäran mail.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30840-2023 tillsynsbegäran mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -740,11 +740,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023 fsc-klagomål.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023 FSC-klagomål.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023 fsc-klagomål mail.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023 FSC-klagomål mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -752,7 +752,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30841-2023 tillsynsbegäran mail.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30841-2023 tillsynsbegäran mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -832,11 +832,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023 fsc-klagomål.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023 FSC-klagomål.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023 fsc-klagomål mail.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023 FSC-klagomål mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -844,7 +844,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30839-2023 tillsynsbegäran mail.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30839-2023 tillsynsbegäran mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -923,11 +923,11 @@
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023 fsc-klagomål.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023 FSC-klagomål.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023 fsc-klagomål mail.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023 FSC-klagomål mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X5">
@@ -935,7 +935,7 @@
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/ti,llsynsmail/A 33036-2023 tillsynsbegäran mail.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsynsmail/A 33036-2023 tillsynsbegäran mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Översikt VÄSTERNORRLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45125</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45118</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>45118</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45118</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>45118</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45119</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45122</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>45122</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>45124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45124</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45124</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>45124</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45125</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45125</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>45125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>45125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>45126</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45126</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45126</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45126</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45126</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45126</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45128</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45129</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45132</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45132</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45133</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>45133</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45133</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45133</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45135</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45135</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>45135</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45138</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45138</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
